--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_43_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_43_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.191559481437356, 4.613501251156961]</t>
+          <t>[4.189332760537694, 4.615727972056622]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.05116234500671801, 0.32597013060916424]</t>
+          <t>[0.05135941026137303, 0.32577306535450923]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.008244045486294871</v>
+        <v>0.008158961082668892</v>
       </c>
       <c r="V2" t="n">
-        <v>0.008244045486294871</v>
+        <v>0.008158961082668892</v>
       </c>
       <c r="W2" t="n">
         <v>24.45661661661737</v>
